--- a/Curriculums/TTBT/Through the Bible Together.xlsx
+++ b/Curriculums/TTBT/Through the Bible Together.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://granade1-my.sharepoint.com/personal/john_granade_us/Documents/Personal/ZoeGroups/Curriculum/Through The Bible Together/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\zoegroups\Curriculums\TTBT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1299" documentId="8_{57F02434-280F-4D57-A5C7-F63B05AC8498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{278203BE-72FC-4645-8383-3180732D2FD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933922D7-38BF-49EA-9C99-7FD32F5C16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="22452" windowHeight="10920" xr2:uid="{66C996F1-9220-4A21-8745-3F836D5B8972}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{66C996F1-9220-4A21-8745-3F836D5B8972}"/>
   </bookViews>
   <sheets>
-    <sheet name="OT Content" sheetId="1" r:id="rId1"/>
-    <sheet name="NT Content" sheetId="4" r:id="rId2"/>
+    <sheet name="OT Readings" sheetId="1" r:id="rId1"/>
+    <sheet name="NT Readings" sheetId="4" r:id="rId2"/>
     <sheet name="Schedule 2026-2027" sheetId="3" r:id="rId3"/>
     <sheet name="Lookups" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OT Content'!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OT Readings'!$A$1:$G$101</definedName>
     <definedName name="OTCharacters">Lookups!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="485">
   <si>
     <t>Adam and Eve</t>
   </si>
@@ -857,10 +857,6 @@
     <t>Gen 17 - 19</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Gen 12 - 14</t>
   </si>
   <si>
@@ -999,9 +995,6 @@
     <t>2 Kings 4-5</t>
   </si>
   <si>
-    <t>Daniel 1-3</t>
-  </si>
-  <si>
     <t>Daniel 4-5</t>
   </si>
   <si>
@@ -1431,9 +1424,6 @@
     <t>Daniel 3</t>
   </si>
   <si>
-    <t>Daniel 4</t>
-  </si>
-  <si>
     <t>Faithful in a Foreign Land</t>
   </si>
   <si>
@@ -1582,6 +1572,12 @@
   </si>
   <si>
     <t>Esther 8, Esther 10</t>
+  </si>
+  <si>
+    <t>Daniel 2</t>
+  </si>
+  <si>
+    <t>Daniel 5</t>
   </si>
 </sst>
 </file>
@@ -2136,25 +2132,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8FBF7D-4F3A-4A3F-A24C-4D18B767243B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24" style="15" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="66.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
@@ -2174,10 +2169,10 @@
         <v>230</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2188,7 +2183,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -2209,7 +2204,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2226,11 +2221,11 @@
         <v>226</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2247,11 +2242,11 @@
         <v>219</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -2259,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>220</v>
@@ -2268,11 +2263,11 @@
         <v>220</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2285,7 +2280,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -2293,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>221</v>
@@ -2306,7 +2301,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>222</v>
@@ -2327,7 +2322,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -2335,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>223</v>
@@ -2348,7 +2343,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>224</v>
@@ -2369,7 +2364,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2384,7 +2379,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>239</v>
@@ -2405,28 +2400,28 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>3</v>
       </c>
       <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>477</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>476</v>
+      <c r="D14" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>473</v>
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>3</v>
       </c>
@@ -2434,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>240</v>
@@ -2447,7 +2442,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>3</v>
       </c>
@@ -2455,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>235</v>
@@ -2468,7 +2463,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2478,14 +2473,12 @@
       <c r="C17" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -2493,20 +2486,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>248</v>
-      </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
@@ -2514,20 +2507,20 @@
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>250</v>
-      </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>4</v>
       </c>
@@ -2535,20 +2528,20 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>243</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
@@ -2556,20 +2549,20 @@
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2579,14 +2572,12 @@
       <c r="C22" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>5</v>
       </c>
@@ -2594,20 +2585,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>5</v>
       </c>
@@ -2615,20 +2606,20 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>5</v>
       </c>
@@ -2636,20 +2627,20 @@
         <v>3</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>5</v>
       </c>
@@ -2657,20 +2648,20 @@
         <v>4</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2678,16 +2669,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>244</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>6</v>
       </c>
@@ -2695,20 +2684,20 @@
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>6</v>
       </c>
@@ -2716,20 +2705,20 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>6</v>
       </c>
@@ -2737,20 +2726,20 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>6</v>
       </c>
@@ -2761,17 +2750,17 @@
         <v>146</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2779,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>7</v>
       </c>
@@ -2793,20 +2782,20 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>7</v>
       </c>
@@ -2814,20 +2803,20 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>311</v>
-      </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>7</v>
       </c>
@@ -2835,20 +2824,20 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>7</v>
       </c>
@@ -2856,20 +2845,20 @@
         <v>4</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2877,14 +2866,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>8</v>
       </c>
@@ -2892,20 +2881,20 @@
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>8</v>
       </c>
@@ -2913,20 +2902,20 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>8</v>
       </c>
@@ -2934,20 +2923,20 @@
         <v>3</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>328</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>8</v>
       </c>
@@ -2955,35 +2944,33 @@
         <v>4</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>9</v>
       </c>
@@ -2991,20 +2978,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>9</v>
       </c>
@@ -3012,20 +2999,20 @@
         <v>2</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>9</v>
       </c>
@@ -3033,20 +3020,20 @@
         <v>3</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>9</v>
       </c>
@@ -3054,20 +3041,20 @@
         <v>4</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3080,7 +3067,7 @@
       <c r="F47" s="16"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>10</v>
       </c>
@@ -3088,20 +3075,20 @@
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>10</v>
       </c>
@@ -3109,20 +3096,20 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>10</v>
       </c>
@@ -3130,20 +3117,20 @@
         <v>3</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>10</v>
       </c>
@@ -3151,20 +3138,20 @@
         <v>4</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3172,14 +3159,14 @@
         <v>0</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>11</v>
       </c>
@@ -3187,20 +3174,20 @@
         <v>1</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>357</v>
-      </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>11</v>
       </c>
@@ -3208,20 +3195,20 @@
         <v>2</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>11</v>
       </c>
@@ -3229,20 +3216,20 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>11</v>
       </c>
@@ -3250,20 +3237,20 @@
         <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3276,7 +3263,7 @@
       <c r="F57" s="16"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>12</v>
       </c>
@@ -3284,20 +3271,20 @@
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>12</v>
       </c>
@@ -3305,20 +3292,20 @@
         <v>2</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>12</v>
       </c>
@@ -3326,20 +3313,20 @@
         <v>3</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>12</v>
       </c>
@@ -3347,20 +3334,20 @@
         <v>4</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
@@ -3368,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>13</v>
       </c>
@@ -3382,20 +3369,20 @@
         <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>13</v>
       </c>
@@ -3403,20 +3390,20 @@
         <v>2</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>13</v>
       </c>
@@ -3424,20 +3411,20 @@
         <v>3</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>13</v>
       </c>
@@ -3445,20 +3432,20 @@
         <v>4</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3471,7 +3458,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>14</v>
       </c>
@@ -3479,20 +3466,20 @@
         <v>1</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>14</v>
       </c>
@@ -3500,20 +3487,20 @@
         <v>2</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>14</v>
       </c>
@@ -3521,20 +3508,20 @@
         <v>3</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>14</v>
       </c>
@@ -3542,20 +3529,20 @@
         <v>4</v>
       </c>
       <c r="C71" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>412</v>
-      </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -3568,7 +3555,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>15</v>
       </c>
@@ -3576,20 +3563,20 @@
         <v>1</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>15</v>
       </c>
@@ -3597,20 +3584,20 @@
         <v>2</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>15</v>
       </c>
@@ -3618,20 +3605,20 @@
         <v>3</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>15</v>
       </c>
@@ -3639,20 +3626,20 @@
         <v>4</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3667,7 +3654,7 @@
       <c r="F77" s="16"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>16</v>
       </c>
@@ -3675,20 +3662,20 @@
         <v>1</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>16</v>
       </c>
@@ -3696,20 +3683,20 @@
         <v>2</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>16</v>
       </c>
@@ -3717,20 +3704,20 @@
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>16</v>
       </c>
@@ -3738,20 +3725,20 @@
         <v>4</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17</v>
       </c>
@@ -3766,87 +3753,91 @@
       <c r="F82" s="16"/>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>17</v>
       </c>
       <c r="B83" s="13">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
-        <v>436</v>
+      <c r="C83" s="22" t="s">
+        <v>433</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>291</v>
+        <v>469</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>17</v>
       </c>
       <c r="B84" s="13">
         <v>2</v>
       </c>
-      <c r="C84" t="s">
-        <v>473</v>
+      <c r="C84" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>17</v>
       </c>
       <c r="B85" s="13">
         <v>3</v>
       </c>
-      <c r="C85" t="s">
-        <v>437</v>
+      <c r="C85" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>17</v>
       </c>
       <c r="B86" s="13">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
-        <v>438</v>
+      <c r="C86" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+        <v>291</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -3859,7 +3850,7 @@
       <c r="F87" s="16"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>18</v>
       </c>
@@ -3867,20 +3858,20 @@
         <v>1</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>18</v>
       </c>
@@ -3888,41 +3879,41 @@
         <v>2</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>18</v>
       </c>
       <c r="B90" s="13">
         <v>3</v>
       </c>
-      <c r="C90" t="s">
-        <v>479</v>
-      </c>
-      <c r="D90" t="s">
-        <v>483</v>
-      </c>
-      <c r="E90" t="s">
-        <v>483</v>
-      </c>
-      <c r="F90" s="15" t="s">
+      <c r="C90" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>480</v>
       </c>
+      <c r="E90" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>477</v>
+      </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>18</v>
       </c>
@@ -3930,20 +3921,20 @@
         <v>4</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G91" s="13"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -3958,7 +3949,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="18"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>19</v>
       </c>
@@ -3966,20 +3957,20 @@
         <v>1</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>446</v>
-      </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>19</v>
       </c>
@@ -3987,20 +3978,20 @@
         <v>2</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>19</v>
       </c>
@@ -4008,20 +3999,20 @@
         <v>3</v>
       </c>
       <c r="C95" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>19</v>
       </c>
@@ -4029,20 +4020,20 @@
         <v>4</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20</v>
       </c>
@@ -4053,13 +4044,11 @@
         <v>150</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="21" t="s">
-        <v>456</v>
-      </c>
+      <c r="E97" s="21"/>
       <c r="F97" s="16"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>20</v>
       </c>
@@ -4067,20 +4056,20 @@
         <v>1</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>20</v>
       </c>
@@ -4088,20 +4077,20 @@
         <v>2</v>
       </c>
       <c r="C99" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D99" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>463</v>
-      </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>20</v>
       </c>
@@ -4109,20 +4098,20 @@
         <v>3</v>
       </c>
       <c r="C100" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>467</v>
-      </c>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>20</v>
       </c>
@@ -4130,39 +4119,30 @@
         <v>4</v>
       </c>
       <c r="C101" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F101" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="D101" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>471</v>
-      </c>
       <c r="G101" s="13"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D104" s="15"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D105" s="15"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{7A8FBF7D-4F3A-4A3F-A24C-4D18B767243B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G101" xr:uid="{7A8FBF7D-4F3A-4A3F-A24C-4D18B767243B}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4194,18 +4174,18 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -4228,7 +4208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4245,7 +4225,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4262,7 +4242,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4279,7 +4259,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4296,7 +4276,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4313,7 +4293,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4330,7 +4310,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4347,7 +4327,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4364,7 +4344,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4381,7 +4361,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4398,7 +4378,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4415,7 +4395,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4432,7 +4412,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4449,7 +4429,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4466,7 +4446,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4483,7 +4463,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4500,7 +4480,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4517,7 +4497,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4534,7 +4514,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4551,7 +4531,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4585,16 +4565,16 @@
       <selection sqref="A1:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -4611,7 +4591,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4628,7 +4608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -4645,7 +4625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4662,7 +4642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4679,7 +4659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4696,7 +4676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4713,7 +4693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4730,7 +4710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4747,7 +4727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4764,7 +4744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4781,7 +4761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4798,7 +4778,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4815,7 +4795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4832,7 +4812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -4849,7 +4829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4866,7 +4846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -4883,7 +4863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4900,7 +4880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -4917,7 +4897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4934,7 +4914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -4951,7 +4931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4968,7 +4948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -4985,7 +4965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -5002,7 +4982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -5019,7 +4999,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -5032,7 +5012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5045,7 +5025,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -5062,7 +5042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -5079,7 +5059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -5096,7 +5076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -5113,7 +5093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -5130,7 +5110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -5147,7 +5127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5164,7 +5144,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -5181,7 +5161,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5198,7 +5178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -5215,7 +5195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -5232,7 +5212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -5249,7 +5229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5266,7 +5246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -5283,7 +5263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5300,7 +5280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -5317,7 +5297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5334,7 +5314,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -5351,7 +5331,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5368,7 +5348,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -5385,7 +5365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5402,7 +5382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -5419,7 +5399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5436,7 +5416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -5453,7 +5433,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -5466,7 +5446,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -5493,12 +5473,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5509,7 +5489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5520,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5544,7 +5524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5556,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5568,7 +5548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5592,7 +5572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5604,7 +5584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5613,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5622,7 +5602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5631,7 +5611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5640,7 +5620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5649,7 +5629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5658,7 +5638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5667,7 +5647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5676,7 +5656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5685,7 +5665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5694,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5703,7 +5683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -5712,7 +5692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>

--- a/Curriculums/TTBT/Through the Bible Together.xlsx
+++ b/Curriculums/TTBT/Through the Bible Together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\zoegroups\Curriculums\TTBT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933922D7-38BF-49EA-9C99-7FD32F5C16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26485636-D2D6-44CD-976E-04297EC6DFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{66C996F1-9220-4A21-8745-3F836D5B8972}"/>
+    <workbookView xWindow="660" yWindow="810" windowWidth="26505" windowHeight="14595" xr2:uid="{66C996F1-9220-4A21-8745-3F836D5B8972}"/>
   </bookViews>
   <sheets>
     <sheet name="OT Readings" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="498">
   <si>
     <t>Adam and Eve</t>
   </si>
@@ -474,28 +474,7 @@
     <t>Calendar Week #</t>
   </si>
   <si>
-    <t>Promise, Sarah, Isaac's Birth, Sacrifice</t>
-  </si>
-  <si>
-    <t>Suffering, Sovereignty</t>
-  </si>
-  <si>
-    <t>Covenant, Wrestling, Israel</t>
-  </si>
-  <si>
     <t>Providence, Forgiveness</t>
-  </si>
-  <si>
-    <t>Faithfulness, belly of the fish</t>
-  </si>
-  <si>
-    <t>Lion's Den, Shadrach, Meshach, and Abindigo</t>
-  </si>
-  <si>
-    <t>Rebuilding the wall</t>
-  </si>
-  <si>
-    <t>New Covenant (Isaiah 9 and 53)</t>
   </si>
   <si>
     <t>Focus / Characters</t>
@@ -1578,6 +1557,66 @@
   </si>
   <si>
     <t>Daniel 5</t>
+  </si>
+  <si>
+    <t>Creation and the Fall</t>
+  </si>
+  <si>
+    <t>Noah and God’s Covenant</t>
+  </si>
+  <si>
+    <t>Job and God’s Sovereignty</t>
+  </si>
+  <si>
+    <t>Abraham and Isaac: Promise Fulfilled</t>
+  </si>
+  <si>
+    <t>Jacob: Wrestling and Renewal</t>
+  </si>
+  <si>
+    <t>Joseph: From Pit to Palace</t>
+  </si>
+  <si>
+    <t>Moses: God’s Deliverer</t>
+  </si>
+  <si>
+    <t>Law, Wilderness, and Farewell</t>
+  </si>
+  <si>
+    <t>Joshua: Be Strong and Courageous</t>
+  </si>
+  <si>
+    <t>Judges: Israel’s Cycle of Sin and Rescue</t>
+  </si>
+  <si>
+    <t>Ruth, Samuel, and Israel’s First King</t>
+  </si>
+  <si>
+    <t>David: Shepherd to King</t>
+  </si>
+  <si>
+    <t>David’s Sin, Psalms, and God’s Promise</t>
+  </si>
+  <si>
+    <t>Solomon: Wisdom and Decline</t>
+  </si>
+  <si>
+    <t>Elijah, Elisha, and God’s Power</t>
+  </si>
+  <si>
+    <t>Jonah: God’s Relentless Mercy</t>
+  </si>
+  <si>
+    <t>Daniel: Faithful in Exile</t>
+  </si>
+  <si>
+    <t>Esther: Courage and God’s Deliverance</t>
+  </si>
+  <si>
+    <t>Nehemiah and Ezra: Rebuilding God’s People</t>
+  </si>
+  <si>
+    <t>Prophets: The New Covenant and the Messiah</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1731,20 +1770,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1783,19 +1813,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -2134,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8FBF7D-4F3A-4A3F-A24C-4D18B767243B}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F101" sqref="A2:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,38 +2173,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>424</v>
+      <c r="F1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -2191,16 +2218,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -2215,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -2233,16 +2260,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -2254,31 +2281,33 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>0</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2288,16 +2317,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="G8" s="13"/>
     </row>
@@ -2309,16 +2338,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -2330,16 +2359,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -2351,33 +2380,33 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="19">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -2387,16 +2416,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -2407,17 +2436,17 @@
       <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>471</v>
+      <c r="C14" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>464</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -2429,16 +2458,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -2450,33 +2479,33 @@
         <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="19">
         <v>0</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2486,16 +2515,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -2507,16 +2536,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -2528,16 +2557,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -2549,33 +2578,33 @@
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="19">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="19">
         <v>0</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -2585,16 +2614,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -2606,16 +2635,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G24" s="13"/>
     </row>
@@ -2627,16 +2656,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="F25" s="13" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -2648,33 +2677,33 @@
         <v>4</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="19">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="19">
         <v>0</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -2684,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G28" s="13"/>
     </row>
@@ -2705,16 +2734,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -2726,16 +2755,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -2747,32 +2776,33 @@
         <v>4</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="19">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="19">
         <v>0</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -2782,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G33" s="13"/>
     </row>
@@ -2803,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -2824,16 +2854,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -2845,33 +2875,33 @@
         <v>4</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="19">
         <v>8</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="19">
         <v>0</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -2881,16 +2911,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G38" s="13"/>
     </row>
@@ -2902,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -2923,16 +2953,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G40" s="13"/>
     </row>
@@ -2944,31 +2974,33 @@
         <v>4</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="19">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="19">
         <v>0</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -2978,16 +3010,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G43" s="13"/>
     </row>
@@ -2999,16 +3031,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G44" s="13"/>
     </row>
@@ -3020,16 +3052,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G45" s="13"/>
     </row>
@@ -3041,31 +3073,33 @@
         <v>4</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="19">
         <v>10</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="19">
         <v>0</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="C47" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -3075,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G48" s="13"/>
     </row>
@@ -3096,16 +3130,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G49" s="13"/>
     </row>
@@ -3117,16 +3151,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="F50" s="13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G50" s="13"/>
     </row>
@@ -3138,33 +3172,33 @@
         <v>4</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="19">
         <v>11</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="19">
         <v>0</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="C52" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
@@ -3174,16 +3208,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G53" s="13"/>
     </row>
@@ -3195,16 +3229,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -3216,16 +3250,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G55" s="13"/>
     </row>
@@ -3237,31 +3271,33 @@
         <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="19">
         <v>12</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="19">
         <v>0</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="C57" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
@@ -3271,16 +3307,16 @@
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G58" s="13"/>
     </row>
@@ -3292,16 +3328,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -3313,16 +3349,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G60" s="13"/>
     </row>
@@ -3334,32 +3370,35 @@
         <v>4</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="19">
         <v>13</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="19">
         <v>0</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="18"/>
+      <c r="C62" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
@@ -3369,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -3390,16 +3429,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -3411,16 +3450,16 @@
         <v>3</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G65" s="13"/>
     </row>
@@ -3432,31 +3471,33 @@
         <v>4</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="19">
         <v>14</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="19">
         <v>0</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="18"/>
+      <c r="C67" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
@@ -3466,16 +3507,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G68" s="13"/>
     </row>
@@ -3487,16 +3528,16 @@
         <v>2</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G69" s="13"/>
     </row>
@@ -3508,16 +3549,16 @@
         <v>3</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G70" s="13"/>
     </row>
@@ -3529,31 +3570,33 @@
         <v>4</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="19">
         <v>15</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="19">
         <v>0</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="18"/>
+      <c r="C72" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
@@ -3563,16 +3606,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="G73" s="13"/>
     </row>
@@ -3584,16 +3627,16 @@
         <v>2</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>427</v>
-      </c>
       <c r="F74" s="13" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G74" s="13"/>
     </row>
@@ -3605,16 +3648,16 @@
         <v>3</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -3626,33 +3669,33 @@
         <v>4</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D76" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>430</v>
-      </c>
       <c r="F76" s="13" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="19">
         <v>16</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="19">
         <v>0</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="18"/>
+      <c r="C77" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
@@ -3662,16 +3705,16 @@
         <v>1</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -3683,16 +3726,16 @@
         <v>2</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G79" s="13"/>
     </row>
@@ -3704,16 +3747,16 @@
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G80" s="13"/>
     </row>
@@ -3725,33 +3768,33 @@
         <v>4</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="19">
         <v>17</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="19">
         <v>0</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="18"/>
+      <c r="C82" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -3760,17 +3803,17 @@
       <c r="B83" s="13">
         <v>1</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>433</v>
+      <c r="C83" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G83" s="13"/>
     </row>
@@ -3781,17 +3824,17 @@
       <c r="B84" s="13">
         <v>2</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>470</v>
+      <c r="C84" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -3802,17 +3845,17 @@
       <c r="B85" s="13">
         <v>3</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>434</v>
+      <c r="C85" s="19" t="s">
+        <v>427</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G85" s="13"/>
     </row>
@@ -3823,32 +3866,34 @@
       <c r="B86" s="13">
         <v>4</v>
       </c>
-      <c r="C86" s="22" t="s">
-        <v>435</v>
+      <c r="C86" s="19" t="s">
+        <v>428</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="19">
         <v>18</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="19">
         <v>0</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="18"/>
+      <c r="C87" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
@@ -3857,17 +3902,17 @@
       <c r="B88" s="13">
         <v>1</v>
       </c>
-      <c r="C88" s="22" t="s">
-        <v>436</v>
+      <c r="C88" s="19" t="s">
+        <v>429</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -3878,17 +3923,17 @@
       <c r="B89" s="13">
         <v>2</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>437</v>
+      <c r="C89" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G89" s="13"/>
     </row>
@@ -3899,17 +3944,17 @@
       <c r="B90" s="13">
         <v>3</v>
       </c>
-      <c r="C90" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>480</v>
+      <c r="C90" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>473</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G90" s="13"/>
     </row>
@@ -3920,34 +3965,34 @@
       <c r="B91" s="13">
         <v>4</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>438</v>
+      <c r="C91" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="19">
         <v>19</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="19">
         <v>0</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="18"/>
+      <c r="C92" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="16"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
@@ -3956,17 +4001,17 @@
       <c r="B93" s="13">
         <v>1</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>440</v>
+      <c r="C93" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -3977,17 +4022,17 @@
       <c r="B94" s="13">
         <v>2</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>445</v>
+      <c r="C94" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G94" s="13"/>
     </row>
@@ -3998,17 +4043,17 @@
       <c r="B95" s="13">
         <v>3</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>447</v>
+      <c r="C95" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G95" s="13"/>
     </row>
@@ -4019,34 +4064,34 @@
       <c r="B96" s="13">
         <v>4</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>451</v>
+      <c r="C96" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="19">
         <v>20</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="19">
         <v>0</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="18"/>
+      <c r="C97" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="16"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
@@ -4055,17 +4100,17 @@
       <c r="B98" s="13">
         <v>1</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>454</v>
+      <c r="C98" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G98" s="13"/>
     </row>
@@ -4076,17 +4121,17 @@
       <c r="B99" s="13">
         <v>2</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>458</v>
+      <c r="C99" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>451</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -4097,17 +4142,17 @@
       <c r="B100" s="13">
         <v>3</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>462</v>
+      <c r="C100" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G100" s="13"/>
     </row>
@@ -4118,17 +4163,17 @@
       <c r="B101" s="13">
         <v>4</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>466</v>
+      <c r="C101" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G101" s="13"/>
     </row>
@@ -4190,10 +4235,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>24</v>
@@ -4213,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="7"/>
@@ -4230,13 +4275,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
@@ -4247,13 +4292,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
@@ -4264,13 +4309,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="7"/>
@@ -4281,13 +4326,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
@@ -4298,13 +4343,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="7"/>
@@ -4315,13 +4360,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="7"/>
@@ -4332,13 +4377,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="7"/>
@@ -4349,13 +4394,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
@@ -4366,13 +4411,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="7"/>
@@ -4383,13 +4428,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="7"/>
@@ -4400,13 +4445,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="7"/>
@@ -4417,13 +4462,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="7"/>
@@ -4434,13 +4479,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="7"/>
@@ -4451,13 +4496,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="7"/>
@@ -4468,13 +4513,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="7"/>
@@ -4485,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="7"/>
@@ -4502,13 +4547,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="7"/>
@@ -4519,13 +4564,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="7"/>
@@ -4536,13 +4581,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="7"/>
@@ -5483,10 +5528,10 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
